--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2464,7 +2464,7 @@
     <col min="26" max="26" width="68.2421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$130</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5083" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="664">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1148,59 +1148,28 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ageCode</t>
-  </si>
-  <si>
-    <t>ageCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ageCode.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.system</t>
-  </si>
-  <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
     <t>http://loinc.org</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
     <t>30525-0</t>
   </si>
   <si>
-    <t>Observation.code.coding:ageCode.display</t>
-  </si>
-  <si>
     <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ageCode.userSelected</t>
   </si>
   <si>
     <t>Observation.code.coding.userSelected</t>
@@ -2427,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP131"/>
+  <dimension ref="A1:AP130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11572,7 +11541,7 @@
         <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
@@ -11654,7 +11623,7 @@
         <v>104</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>358</v>
@@ -11932,7 +11901,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -11990,14 +11959,16 @@
         <v>82</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AC79" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>230</v>
@@ -12035,48 +12006,42 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12124,19 +12089,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12145,10 +12110,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12159,21 +12124,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12185,15 +12150,17 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12230,31 +12197,31 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12266,7 +12233,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12277,21 +12244,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -12300,27 +12267,29 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12350,31 +12319,31 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12383,10 +12352,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12397,10 +12366,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12408,7 +12377,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>
@@ -12423,26 +12392,24 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>82</v>
@@ -12484,7 +12451,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12505,10 +12472,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12519,10 +12486,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12530,7 +12497,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
@@ -12545,24 +12512,26 @@
         <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12604,7 +12573,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12625,10 +12594,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12639,10 +12608,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12650,7 +12619,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>92</v>
@@ -12665,26 +12634,26 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>82</v>
@@ -12726,7 +12695,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12747,10 +12716,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12761,10 +12730,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12787,19 +12756,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12848,7 +12817,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12869,10 +12838,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12883,10 +12852,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12894,13 +12863,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>82</v>
@@ -12909,19 +12878,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12931,7 +12900,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12970,7 +12939,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12991,10 +12960,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13005,10 +12974,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13016,13 +12985,13 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -13031,19 +13000,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13092,7 +13061,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>289</v>
+        <v>377</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13104,22 +13073,22 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>290</v>
+        <v>384</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>291</v>
+        <v>385</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13138,13 +13107,13 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>82</v>
@@ -13164,9 +13133,7 @@
       <c r="N89" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="O89" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13220,7 +13187,7 @@
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>104</v>
@@ -13229,19 +13196,19 @@
         <v>170</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13249,21 +13216,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13275,18 +13242,20 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13334,13 +13303,13 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>104</v>
@@ -13349,19 +13318,19 @@
         <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>402</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13369,14 +13338,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13395,19 +13364,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13456,7 +13425,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13468,22 +13437,22 @@
         <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13491,14 +13460,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13528,9 +13497,7 @@
       <c r="N92" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="O92" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13578,7 +13545,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13593,19 +13560,19 @@
         <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13613,10 +13580,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13627,7 +13594,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13639,18 +13606,20 @@
         <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="N93" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O93" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13698,34 +13667,34 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AO93" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13733,10 +13702,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13747,7 +13716,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13759,16 +13728,16 @@
         <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>437</v>
@@ -13808,59 +13777,59 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13881,19 +13850,19 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13930,59 +13899,59 @@
         <v>82</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AC95" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AG95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14000,23 +13969,19 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>456</v>
+        <v>215</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>444</v>
+        <v>216</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14064,7 +14029,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14073,7 +14038,7 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>82</v>
@@ -14082,38 +14047,38 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>452</v>
+        <v>113</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -14125,15 +14090,17 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14170,31 +14137,31 @@
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -14206,7 +14173,7 @@
         <v>82</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14217,44 +14184,46 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>140</v>
+        <v>453</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>141</v>
+        <v>454</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>221</v>
+        <v>455</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -14290,31 +14259,31 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>222</v>
+        <v>458</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14323,10 +14292,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>106</v>
+        <v>460</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14348,65 +14317,67 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O99" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="P99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q99" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="O99" t="s" s="2">
+      <c r="R99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="P99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14424,7 +14395,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14445,10 +14416,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14459,10 +14430,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14470,41 +14441,39 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q100" t="s" s="2">
-        <v>476</v>
-      </c>
+      <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14524,31 +14493,31 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF100" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14569,10 +14538,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14583,10 +14552,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14609,26 +14578,26 @@
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -14679,7 +14648,7 @@
         <v>92</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>104</v>
+        <v>488</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14691,7 +14660,7 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>489</v>
@@ -14731,50 +14700,50 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>492</v>
       </c>
       <c r="M102" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14801,7 +14770,7 @@
         <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>498</v>
+        <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>105</v>
@@ -14813,10 +14782,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14827,10 +14796,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14838,34 +14807,34 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14890,7 +14859,7 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>188</v>
+        <v>504</v>
       </c>
       <c r="Y103" t="s" s="2">
         <v>505</v>
@@ -14914,16 +14883,16 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14935,7 +14904,7 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>488</v>
+        <v>106</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>508</v>
@@ -14956,14 +14925,14 @@
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>82</v>
@@ -14978,16 +14947,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15012,7 +14981,7 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="Y104" t="s" s="2">
         <v>515</v>
@@ -15042,10 +15011,10 @@
         <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>517</v>
+        <v>104</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>105</v>
@@ -15054,31 +15023,31 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>106</v>
+        <v>518</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15097,19 +15066,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>198</v>
+        <v>522</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15134,13 +15103,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15158,7 +15127,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15176,27 +15145,27 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AM105" t="s" s="2">
+      <c r="AN105" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AN105" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15207,7 +15176,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15219,20 +15188,18 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L106" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>536</v>
-      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>82</v>
       </c>
@@ -15256,13 +15223,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15280,13 +15247,13 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>104</v>
@@ -15298,19 +15265,19 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AM106" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="107" hidden="true">
@@ -15352,7 +15319,9 @@
       <c r="N107" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="O107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15379,10 +15348,10 @@
         <v>355</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15418,7 +15387,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>546</v>
@@ -15430,15 +15399,15 @@
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>548</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15461,7 +15430,7 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>198</v>
+        <v>549</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>550</v>
@@ -15472,9 +15441,7 @@
       <c r="N108" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="O108" t="s" s="2">
-        <v>553</v>
-      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15498,13 +15465,13 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>555</v>
+        <v>82</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15522,7 +15489,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15534,33 +15501,33 @@
         <v>104</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="AM108" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15583,16 +15550,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15642,7 +15609,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15660,27 +15627,27 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AM109" t="s" s="2">
+      <c r="AN109" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP109" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>566</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15691,7 +15658,7 @@
         <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>82</v>
@@ -15703,18 +15670,20 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15762,25 +15731,25 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>170</v>
+        <v>572</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>572</v>
+        <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>573</v>
@@ -15792,15 +15761,15 @@
         <v>82</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>575</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15811,7 +15780,7 @@
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15823,20 +15792,16 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>577</v>
+        <v>215</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>578</v>
+        <v>216</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15884,19 +15849,19 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>576</v>
+        <v>218</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -15905,10 +15870,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>584</v>
+        <v>113</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15919,21 +15884,21 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
@@ -15945,15 +15910,17 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15990,31 +15957,31 @@
         <v>82</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -16026,7 +15993,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -16037,14 +16004,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>139</v>
+        <v>578</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16057,24 +16024,26 @@
         <v>82</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>141</v>
+        <v>579</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>221</v>
+        <v>580</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -16110,19 +16079,19 @@
         <v>82</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>222</v>
+        <v>581</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16157,46 +16126,44 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>140</v>
+        <v>583</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16244,19 +16211,19 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>104</v>
+        <v>587</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>148</v>
+        <v>588</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
@@ -16265,10 +16232,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>106</v>
+        <v>590</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16279,10 +16246,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16305,16 +16272,16 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L115" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="N115" t="s" s="2">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16364,7 +16331,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16373,10 +16340,10 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
@@ -16385,10 +16352,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16399,10 +16366,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16425,18 +16392,20 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>593</v>
+        <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O116" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16460,13 +16429,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16484,7 +16453,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16493,22 +16462,22 @@
         <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>597</v>
+        <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>598</v>
+        <v>105</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>604</v>
+        <v>519</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16519,10 +16488,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16533,7 +16502,7 @@
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16548,16 +16517,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16582,14 +16551,14 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>119</v>
+        <v>355</v>
       </c>
       <c r="Y117" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="Z117" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="Z117" t="s" s="2">
-        <v>611</v>
-      </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16606,13 +16575,13 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>104</v>
@@ -16624,13 +16593,13 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16641,10 +16610,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16655,7 +16624,7 @@
         <v>80</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>82</v>
@@ -16667,19 +16636,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>198</v>
+        <v>612</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N118" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16704,13 +16673,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16728,31 +16697,31 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>105</v>
+        <v>617</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>612</v>
+        <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>529</v>
+        <v>619</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16763,10 +16732,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16789,20 +16758,18 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L119" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="N119" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16850,7 +16817,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16862,7 +16829,7 @@
         <v>104</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>627</v>
+        <v>105</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
@@ -16871,10 +16838,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16885,10 +16852,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16899,7 +16866,7 @@
         <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>82</v>
@@ -16908,19 +16875,19 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>215</v>
+        <v>625</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>259</v>
+        <v>628</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16970,19 +16937,19 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
@@ -16991,10 +16958,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -17005,10 +16972,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17016,13 +16983,13 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>
@@ -17031,16 +16998,16 @@
         <v>93</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17090,7 +17057,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17111,10 +17078,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17125,10 +17092,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17136,13 +17103,13 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>82</v>
@@ -17151,18 +17118,20 @@
         <v>93</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>642</v>
+        <v>567</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>641</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17210,7 +17179,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17222,7 +17191,7 @@
         <v>104</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>82</v>
@@ -17231,10 +17200,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17245,10 +17214,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17259,7 +17228,7 @@
         <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>82</v>
@@ -17268,23 +17237,19 @@
         <v>82</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>577</v>
+        <v>215</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>648</v>
+        <v>216</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>82</v>
       </c>
@@ -17332,19 +17297,19 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>647</v>
+        <v>218</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
@@ -17353,10 +17318,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>652</v>
+        <v>82</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>653</v>
+        <v>113</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -17367,21 +17332,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>82</v>
@@ -17393,15 +17358,17 @@
         <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -17438,31 +17405,31 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>82</v>
@@ -17474,7 +17441,7 @@
         <v>82</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>82</v>
@@ -17485,14 +17452,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>139</v>
+        <v>578</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17505,24 +17472,26 @@
         <v>82</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>141</v>
+        <v>579</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>221</v>
+        <v>580</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>82</v>
       </c>
@@ -17558,19 +17527,19 @@
         <v>82</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>222</v>
+        <v>581</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17605,45 +17574,45 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>589</v>
+        <v>648</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>590</v>
+        <v>649</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>143</v>
+        <v>650</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17668,13 +17637,13 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17692,34 +17661,34 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>591</v>
+        <v>647</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>82</v>
+        <v>651</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -17727,10 +17696,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17738,7 +17707,7 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>92</v>
@@ -17753,19 +17722,19 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>198</v>
+        <v>433</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>659</v>
+        <v>435</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17790,13 +17759,13 @@
         <v>82</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -17814,10 +17783,10 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>92</v>
@@ -17832,27 +17801,27 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>360</v>
+        <v>441</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>361</v>
+        <v>442</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17872,22 +17841,22 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>443</v>
+        <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>445</v>
+        <v>658</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17912,13 +17881,13 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17936,7 +17905,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17945,7 +17914,7 @@
         <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>104</v>
+        <v>507</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -17954,38 +17923,38 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>665</v>
+        <v>82</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>82</v>
@@ -18000,16 +17969,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>668</v>
+        <v>512</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>669</v>
+        <v>513</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18034,7 +18003,7 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="Y129" t="s" s="2">
         <v>515</v>
@@ -18058,16 +18027,16 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>517</v>
+        <v>104</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>105</v>
@@ -18076,31 +18045,31 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>106</v>
+        <v>518</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18119,19 +18088,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>521</v>
+        <v>662</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>522</v>
+        <v>663</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18156,13 +18125,13 @@
         <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>82</v>
@@ -18180,7 +18149,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18189,154 +18158,32 @@
         <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>527</v>
+        <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP130" t="s" s="2">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="P131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP131" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP131">
+  <autoFilter ref="A1:AP130">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18346,7 +18193,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI130">
+  <conditionalFormatting sqref="A2:AI129">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="663">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2433,7 +2430,7 @@
     <col min="26" max="26" width="68.2421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4223,10 +4220,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4250,13 +4247,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4264,13 +4261,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4374,13 +4371,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4388,10 +4385,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4414,13 +4411,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4471,7 +4468,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4506,10 +4503,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4538,7 +4535,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4591,7 +4588,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4626,10 +4623,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4652,19 +4649,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4713,7 +4710,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4734,10 +4731,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4748,10 +4745,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4774,13 +4771,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4831,7 +4828,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4866,10 +4863,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4898,7 +4895,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4951,7 +4948,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4986,10 +4983,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5015,65 +5012,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5094,10 +5091,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5108,10 +5105,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5134,16 +5131,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5193,7 +5190,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5214,10 +5211,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5228,10 +5225,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5257,65 +5254,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5336,10 +5333,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5350,10 +5347,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5376,19 +5373,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5437,7 +5434,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5458,10 +5455,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5472,10 +5469,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5498,19 +5495,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5559,7 +5556,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5580,10 +5577,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5594,10 +5591,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5620,19 +5617,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5681,7 +5678,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5702,10 +5699,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5716,13 +5713,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5826,13 +5823,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5840,10 +5837,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5866,13 +5863,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5923,7 +5920,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5958,10 +5955,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5990,7 +5987,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6043,7 +6040,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6078,10 +6075,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6104,19 +6101,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6165,7 +6162,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6186,10 +6183,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6200,10 +6197,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6226,13 +6223,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6283,7 +6280,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6318,10 +6315,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6350,7 +6347,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6403,7 +6400,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6438,10 +6435,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6467,23 +6464,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6525,7 +6522,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6546,10 +6543,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6560,10 +6557,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6586,16 +6583,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6645,7 +6642,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6666,10 +6663,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6680,10 +6677,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6709,23 +6706,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6767,7 +6764,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6788,10 +6785,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6802,10 +6799,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6828,19 +6825,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6889,7 +6886,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6910,10 +6907,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6924,10 +6921,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6950,19 +6947,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7011,7 +7008,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7032,10 +7029,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7046,10 +7043,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7072,19 +7069,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7133,7 +7130,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7154,10 +7151,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7168,13 +7165,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7278,13 +7275,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7292,10 +7289,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7318,13 +7315,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7375,7 +7372,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7410,10 +7407,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7442,7 +7439,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7495,7 +7492,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7530,10 +7527,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7556,19 +7553,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7617,7 +7614,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7638,10 +7635,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7652,10 +7649,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7678,13 +7675,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7735,7 +7732,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7770,10 +7767,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7802,7 +7799,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7855,7 +7852,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7890,10 +7887,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7919,23 +7916,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7977,7 +7974,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7998,10 +7995,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8012,10 +8009,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8038,16 +8035,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8097,7 +8094,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8118,10 +8115,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8132,10 +8129,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8161,23 +8158,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8219,7 +8216,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8240,10 +8237,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8254,10 +8251,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8280,19 +8277,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8341,7 +8338,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8362,10 +8359,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8376,10 +8373,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8402,19 +8399,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8463,7 +8460,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8484,10 +8481,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8498,10 +8495,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8524,19 +8521,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8585,7 +8582,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8606,10 +8603,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8620,13 +8617,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8730,13 +8727,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8744,10 +8741,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8770,13 +8767,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8827,7 +8824,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8862,10 +8859,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8894,7 +8891,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8947,7 +8944,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8982,10 +8979,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9008,19 +9005,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9069,7 +9066,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9090,10 +9087,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9104,10 +9101,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9130,13 +9127,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9187,7 +9184,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9222,10 +9219,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9254,7 +9251,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9307,7 +9304,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9342,10 +9339,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9371,23 +9368,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9429,7 +9426,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9450,10 +9447,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9464,10 +9461,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9490,16 +9487,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9549,7 +9546,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9570,10 +9567,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9584,10 +9581,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9613,23 +9610,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9671,7 +9668,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9692,10 +9689,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9706,10 +9703,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9732,19 +9729,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9793,7 +9790,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9814,10 +9811,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9828,10 +9825,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9854,19 +9851,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9915,7 +9912,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9936,10 +9933,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9950,10 +9947,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9976,19 +9973,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10037,7 +10034,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10058,10 +10055,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10072,13 +10069,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10182,13 +10179,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10196,10 +10193,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10222,13 +10219,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10279,7 +10276,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10314,10 +10311,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10346,7 +10343,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10399,7 +10396,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10434,10 +10431,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10460,19 +10457,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10521,7 +10518,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10542,10 +10539,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10556,10 +10553,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10582,13 +10579,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10639,7 +10636,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10674,10 +10671,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10706,7 +10703,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10759,7 +10756,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10794,10 +10791,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10823,23 +10820,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10881,7 +10878,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10902,10 +10899,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10916,10 +10913,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10942,16 +10939,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11001,7 +10998,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11022,10 +11019,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11036,10 +11033,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11065,23 +11062,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11123,7 +11120,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11144,10 +11141,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11158,10 +11155,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11184,19 +11181,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11245,7 +11242,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11266,10 +11263,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11280,10 +11277,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11306,19 +11303,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11367,7 +11364,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11388,10 +11385,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11402,10 +11399,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11428,19 +11425,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11489,7 +11486,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11510,10 +11507,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11524,14 +11521,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11553,16 +11550,16 @@
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11587,14 +11584,14 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11611,7 +11608,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11626,30 +11623,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AO76" t="s" s="2">
+      <c r="AP76" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11672,13 +11669,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11729,7 +11726,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11764,10 +11761,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11796,7 +11793,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11849,7 +11846,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11884,10 +11881,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11910,19 +11907,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11971,7 +11968,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11992,10 +11989,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12006,10 +12003,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12032,13 +12029,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12089,7 +12086,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12124,10 +12121,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12156,7 +12153,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12209,7 +12206,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12244,10 +12241,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12273,23 +12270,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12331,7 +12328,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12352,10 +12349,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12366,10 +12363,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12392,16 +12389,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12451,7 +12448,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12472,10 +12469,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12486,10 +12483,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12515,23 +12512,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12573,7 +12570,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12594,10 +12591,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12608,10 +12605,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12634,19 +12631,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12695,7 +12692,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12716,10 +12713,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12730,10 +12727,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12756,19 +12753,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12817,7 +12814,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12838,10 +12835,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12852,10 +12849,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12878,19 +12875,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12900,7 +12897,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12939,7 +12936,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12960,10 +12957,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12974,10 +12971,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13000,19 +12997,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13061,7 +13058,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13076,19 +13073,19 @@
         <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13096,10 +13093,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13122,16 +13119,16 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13181,7 +13178,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13202,13 +13199,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13216,14 +13213,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13242,19 +13239,19 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13303,7 +13300,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13318,19 +13315,19 @@
         <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13338,14 +13335,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13364,19 +13361,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13425,7 +13422,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13440,19 +13437,19 @@
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AO91" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13460,10 +13457,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13486,16 +13483,16 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13545,7 +13542,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13566,13 +13563,13 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13580,10 +13577,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13606,19 +13603,19 @@
         <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13667,7 +13664,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13682,19 +13679,19 @@
         <v>170</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AO93" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13702,10 +13699,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13728,19 +13725,19 @@
         <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13777,7 +13774,7 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
@@ -13787,7 +13784,7 @@
         <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13796,7 +13793,7 @@
         <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13805,30 +13802,30 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13850,19 +13847,19 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13911,7 +13908,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13920,36 +13917,36 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AJ95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL95" t="s" s="2">
+      <c r="AM95" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B96" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13972,13 +13969,13 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14029,7 +14026,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14064,10 +14061,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14096,7 +14093,7 @@
         <v>141</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>143</v>
@@ -14149,7 +14146,7 @@
         <v>146</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14184,10 +14181,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14210,19 +14207,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14271,7 +14268,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14292,10 +14289,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14306,10 +14303,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14335,22 +14332,22 @@
         <v>115</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O99" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N99" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O99" t="s" s="2">
+      <c r="P99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q99" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q99" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>82</v>
@@ -14374,28 +14371,28 @@
         <v>188</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="Z99" t="s" s="2">
+      <c r="AA99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF99" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14416,10 +14413,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14430,10 +14427,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14456,19 +14453,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O100" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14517,7 +14514,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14538,10 +14535,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14552,10 +14549,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14581,74 +14578,74 @@
         <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF101" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="S101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF101" t="s" s="2">
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI101" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14660,10 +14657,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14674,10 +14671,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14703,16 +14700,16 @@
         <v>115</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14740,28 +14737,28 @@
         <v>188</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Z102" t="s" s="2">
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14782,10 +14779,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14796,10 +14793,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14825,16 +14822,16 @@
         <v>198</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14859,40 +14856,40 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Y103" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Y103" t="s" s="2">
+      <c r="Z103" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z103" t="s" s="2">
+      <c r="AA103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14907,7 +14904,7 @@
         <v>106</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14918,14 +14915,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14947,16 +14944,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14981,14 +14978,14 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15005,7 +15002,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15023,27 +15020,27 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AM104" t="s" s="2">
+      <c r="AN104" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP104" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15066,19 +15063,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15127,7 +15124,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15148,10 +15145,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15162,10 +15159,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15191,13 +15188,13 @@
         <v>198</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15223,14 +15220,14 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
       </c>
@@ -15247,7 +15244,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15265,27 +15262,27 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15311,16 +15308,16 @@
         <v>198</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15345,14 +15342,14 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Z107" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15369,7 +15366,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15390,10 +15387,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15404,10 +15401,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15430,16 +15427,16 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15489,7 +15486,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15507,27 +15504,27 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AM108" t="s" s="2">
+      <c r="AN108" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AN108" t="s" s="2">
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>556</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15550,16 +15547,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15609,7 +15606,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15627,27 +15624,27 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AM109" t="s" s="2">
+      <c r="AN109" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP109" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>565</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15670,19 +15667,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15731,7 +15728,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15743,19 +15740,19 @@
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AK110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM110" t="s" s="2">
+      <c r="AN110" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15766,10 +15763,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15792,13 +15789,13 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15849,7 +15846,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15884,10 +15881,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15916,7 +15913,7 @@
         <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>143</v>
@@ -15969,7 +15966,7 @@
         <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16004,14 +16001,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16033,10 +16030,10 @@
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
@@ -16091,7 +16088,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16126,10 +16123,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16152,16 +16149,16 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16211,7 +16208,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16220,22 +16217,22 @@
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AJ114" t="s" s="2">
+      <c r="AK114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AK114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM114" t="s" s="2">
+      <c r="AN114" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16246,10 +16243,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16272,16 +16269,16 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M115" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="N115" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16331,7 +16328,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16340,22 +16337,22 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="AJ115" t="s" s="2">
+      <c r="AK115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM115" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AK115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="AN115" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16366,10 +16363,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16395,16 +16392,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16432,11 +16429,11 @@
         <v>119</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="Z116" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16453,7 +16450,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16471,13 +16468,13 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AM116" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="AN116" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16488,10 +16485,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16517,16 +16514,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16551,14 +16548,14 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y117" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="Z117" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="Z117" t="s" s="2">
-        <v>610</v>
-      </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16575,7 +16572,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16593,13 +16590,13 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AM117" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="AN117" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16610,10 +16607,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16636,19 +16633,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="N118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16697,7 +16694,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16709,19 +16706,19 @@
         <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AN118" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16732,10 +16729,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16758,16 +16755,16 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M119" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="N119" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16817,7 +16814,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16838,10 +16835,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16852,10 +16849,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16878,16 +16875,16 @@
         <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16937,7 +16934,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16958,10 +16955,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -16972,10 +16969,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16998,16 +16995,16 @@
         <v>93</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17057,7 +17054,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17078,10 +17075,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17092,10 +17089,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17118,19 +17115,19 @@
         <v>93</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17179,7 +17176,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17200,10 +17197,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AN122" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17214,10 +17211,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17240,13 +17237,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17297,7 +17294,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17332,10 +17329,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17364,7 +17361,7 @@
         <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>143</v>
@@ -17417,7 +17414,7 @@
         <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17452,14 +17449,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17481,10 +17478,10 @@
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
@@ -17539,7 +17536,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17574,10 +17571,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17603,16 +17600,16 @@
         <v>198</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="N126" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="O126" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17637,14 +17634,14 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y126" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y126" t="s" s="2">
+      <c r="Z126" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z126" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17661,7 +17658,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>92</v>
@@ -17679,16 +17676,16 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AM126" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN126" t="s" s="2">
+      <c r="AO126" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -17696,10 +17693,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17722,19 +17719,19 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N127" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M127" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>654</v>
-      </c>
       <c r="O127" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17783,7 +17780,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17801,27 +17798,27 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM127" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN127" t="s" s="2">
+      <c r="AO127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP127" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17847,16 +17844,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="N128" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="O128" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17881,40 +17878,40 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Y128" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Y128" t="s" s="2">
+      <c r="Z128" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z128" t="s" s="2">
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI128" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -17929,7 +17926,7 @@
         <v>106</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17940,14 +17937,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17969,16 +17966,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18003,14 +18000,14 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Y129" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Z129" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="Z129" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
       </c>
@@ -18027,7 +18024,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18045,27 +18042,27 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AM129" t="s" s="2">
+      <c r="AN129" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AN129" t="s" s="2">
+      <c r="AO129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP129" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP129" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18091,16 +18088,16 @@
         <v>83</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M130" t="s" s="2">
-        <v>663</v>
-      </c>
       <c r="N130" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O130" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18149,7 +18146,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18170,10 +18167,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="664">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -4220,10 +4223,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4247,13 +4250,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4261,13 +4264,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4371,13 +4374,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4385,10 +4388,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4411,13 +4414,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4468,7 +4471,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4503,10 +4506,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4535,7 +4538,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4588,7 +4591,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4623,10 +4626,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4634,13 +4637,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4649,19 +4652,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4710,7 +4713,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4731,10 +4734,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4745,10 +4748,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4771,13 +4774,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4828,7 +4831,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4863,10 +4866,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4895,7 +4898,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4948,7 +4951,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4983,10 +4986,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4994,13 +4997,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5012,23 +5015,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -5070,7 +5073,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5091,10 +5094,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5105,10 +5108,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5131,16 +5134,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5190,7 +5193,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5211,10 +5214,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5225,10 +5228,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5236,13 +5239,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5254,23 +5257,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5312,7 +5315,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5333,10 +5336,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5347,10 +5350,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5373,19 +5376,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5434,7 +5437,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5455,10 +5458,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5469,10 +5472,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5495,19 +5498,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5556,7 +5559,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5577,10 +5580,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5591,10 +5594,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5617,19 +5620,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5678,7 +5681,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5699,10 +5702,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5713,13 +5716,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5823,13 +5826,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5837,10 +5840,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5863,13 +5866,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5920,7 +5923,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5955,10 +5958,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5987,7 +5990,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6040,7 +6043,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6075,10 +6078,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6086,13 +6089,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6101,19 +6104,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6162,7 +6165,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6183,10 +6186,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6197,10 +6200,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6223,13 +6226,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6280,7 +6283,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6315,10 +6318,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6347,7 +6350,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6400,7 +6403,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6435,10 +6438,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6446,13 +6449,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6464,23 +6467,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6522,7 +6525,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6543,10 +6546,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6557,10 +6560,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6583,16 +6586,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6642,7 +6645,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6663,10 +6666,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6677,10 +6680,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6688,13 +6691,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6706,23 +6709,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6764,7 +6767,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6785,10 +6788,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6799,10 +6802,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6825,19 +6828,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6886,7 +6889,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6907,10 +6910,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6921,10 +6924,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6947,19 +6950,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7008,7 +7011,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7029,10 +7032,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7043,10 +7046,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7069,19 +7072,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7130,7 +7133,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7151,10 +7154,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7165,13 +7168,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7275,13 +7278,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7289,10 +7292,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7315,13 +7318,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7372,7 +7375,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7407,10 +7410,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7439,7 +7442,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7492,7 +7495,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7527,10 +7530,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7538,13 +7541,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7553,19 +7556,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7614,7 +7617,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7635,10 +7638,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7649,10 +7652,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7675,13 +7678,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7732,7 +7735,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7767,10 +7770,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7799,7 +7802,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7852,7 +7855,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7887,10 +7890,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7898,13 +7901,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7916,23 +7919,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7974,7 +7977,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7995,10 +7998,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -8009,10 +8012,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8035,16 +8038,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8094,7 +8097,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8115,10 +8118,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8129,10 +8132,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8140,13 +8143,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8158,23 +8161,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8216,7 +8219,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8237,10 +8240,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8251,10 +8254,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8277,19 +8280,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8338,7 +8341,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8359,10 +8362,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8373,10 +8376,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8399,19 +8402,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8460,7 +8463,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8481,10 +8484,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8495,10 +8498,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8521,19 +8524,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8582,7 +8585,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8603,10 +8606,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8617,13 +8620,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8727,13 +8730,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8741,10 +8744,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8767,13 +8770,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8824,7 +8827,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8859,10 +8862,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8891,7 +8894,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8944,7 +8947,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8979,10 +8982,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8990,13 +8993,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9005,19 +9008,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9066,7 +9069,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9087,10 +9090,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9101,10 +9104,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9127,13 +9130,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9184,7 +9187,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9219,10 +9222,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9251,7 +9254,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9304,7 +9307,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9339,10 +9342,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9350,13 +9353,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9368,23 +9371,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9426,7 +9429,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9447,10 +9450,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9461,10 +9464,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9487,16 +9490,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9546,7 +9549,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9567,10 +9570,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9581,10 +9584,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9592,13 +9595,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -9610,23 +9613,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9668,7 +9671,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9689,10 +9692,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9703,10 +9706,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9729,19 +9732,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9790,7 +9793,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9811,10 +9814,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9825,10 +9828,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9851,19 +9854,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9912,7 +9915,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9933,10 +9936,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9947,10 +9950,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9973,19 +9976,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10034,7 +10037,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10055,10 +10058,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10069,13 +10072,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10179,13 +10182,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10193,10 +10196,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10219,13 +10222,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10276,7 +10279,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10311,10 +10314,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10343,7 +10346,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10396,7 +10399,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10431,10 +10434,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10442,13 +10445,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10457,19 +10460,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10518,7 +10521,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10539,10 +10542,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10553,10 +10556,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10579,13 +10582,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10636,7 +10639,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10671,10 +10674,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10703,7 +10706,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10756,7 +10759,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10791,10 +10794,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10802,13 +10805,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10820,23 +10823,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10878,7 +10881,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10899,10 +10902,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10913,10 +10916,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10939,16 +10942,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10998,7 +11001,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11019,10 +11022,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11033,10 +11036,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11044,13 +11047,13 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -11062,23 +11065,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11120,7 +11123,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11141,10 +11144,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11155,10 +11158,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11181,19 +11184,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11242,7 +11245,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11263,10 +11266,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11277,10 +11280,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11303,19 +11306,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11364,7 +11367,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11385,10 +11388,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11399,10 +11402,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11425,19 +11428,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11486,7 +11489,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11507,10 +11510,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11521,14 +11524,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11550,16 +11553,16 @@
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11584,13 +11587,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11608,7 +11611,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11623,30 +11626,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11669,13 +11672,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11726,7 +11729,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11761,10 +11764,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11793,7 +11796,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11846,7 +11849,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11881,10 +11884,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11907,19 +11910,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11968,7 +11971,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11989,10 +11992,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12003,10 +12006,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12029,13 +12032,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12086,7 +12089,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12121,10 +12124,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12153,7 +12156,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12206,7 +12209,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12241,10 +12244,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12270,23 +12273,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12328,7 +12331,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12349,10 +12352,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12363,10 +12366,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12389,16 +12392,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12448,7 +12451,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12469,10 +12472,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12483,10 +12486,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12512,23 +12515,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12570,7 +12573,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12591,10 +12594,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12605,10 +12608,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12631,19 +12634,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12692,7 +12695,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12713,10 +12716,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12727,10 +12730,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12753,19 +12756,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12814,7 +12817,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12835,10 +12838,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12849,10 +12852,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12875,19 +12878,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12897,7 +12900,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12936,7 +12939,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12957,10 +12960,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12971,10 +12974,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12997,19 +13000,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13058,7 +13061,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13073,19 +13076,19 @@
         <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -13093,10 +13096,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13119,16 +13122,16 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13178,7 +13181,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13199,13 +13202,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13213,14 +13216,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13239,19 +13242,19 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13300,7 +13303,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13315,19 +13318,19 @@
         <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13335,14 +13338,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13361,19 +13364,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13422,7 +13425,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13437,19 +13440,19 @@
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13457,10 +13460,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13483,16 +13486,16 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13542,7 +13545,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13563,13 +13566,13 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13577,10 +13580,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13603,19 +13606,19 @@
         <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13664,7 +13667,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13679,19 +13682,19 @@
         <v>170</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13699,10 +13702,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13725,19 +13728,19 @@
         <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13774,7 +13777,7 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
@@ -13784,7 +13787,7 @@
         <v>146</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13793,7 +13796,7 @@
         <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13802,30 +13805,30 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13847,19 +13850,19 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13908,7 +13911,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13917,7 +13920,7 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>82</v>
@@ -13926,27 +13929,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13969,13 +13972,13 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14026,7 +14029,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14061,10 +14064,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14093,7 +14096,7 @@
         <v>141</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>143</v>
@@ -14146,7 +14149,7 @@
         <v>146</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14181,10 +14184,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14207,19 +14210,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14268,7 +14271,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14289,10 +14292,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14303,10 +14306,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14332,22 +14335,22 @@
         <v>115</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q99" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>82</v>
@@ -14371,10 +14374,10 @@
         <v>188</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14392,7 +14395,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14413,10 +14416,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14427,10 +14430,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14453,19 +14456,19 @@
         <v>93</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14514,7 +14517,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14535,10 +14538,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14549,10 +14552,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14578,23 +14581,23 @@
         <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -14636,7 +14639,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14645,7 +14648,7 @@
         <v>92</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14657,10 +14660,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
@@ -14671,10 +14674,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14700,16 +14703,16 @@
         <v>115</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14737,10 +14740,10 @@
         <v>188</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14758,7 +14761,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14779,10 +14782,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14793,10 +14796,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14822,16 +14825,16 @@
         <v>198</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14856,13 +14859,13 @@
         <v>82</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14880,7 +14883,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14889,7 +14892,7 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14904,7 +14907,7 @@
         <v>106</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14915,14 +14918,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14944,16 +14947,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14978,13 +14981,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15002,7 +15005,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15020,27 +15023,27 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15063,19 +15066,19 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15124,7 +15127,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15145,10 +15148,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15159,10 +15162,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15188,13 +15191,13 @@
         <v>198</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15220,13 +15223,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15244,7 +15247,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15262,27 +15265,27 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15308,16 +15311,16 @@
         <v>198</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15342,13 +15345,13 @@
         <v>82</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15366,7 +15369,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15387,10 +15390,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15401,10 +15404,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15427,16 +15430,16 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15486,7 +15489,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15504,27 +15507,27 @@
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15547,16 +15550,16 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15606,7 +15609,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15624,27 +15627,27 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15667,19 +15670,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15728,7 +15731,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15740,7 +15743,7 @@
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15749,10 +15752,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15763,10 +15766,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15789,13 +15792,13 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15846,7 +15849,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15881,10 +15884,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15913,7 +15916,7 @@
         <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>143</v>
@@ -15966,7 +15969,7 @@
         <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16001,14 +16004,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16030,10 +16033,10 @@
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
@@ -16088,7 +16091,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16123,10 +16126,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16149,16 +16152,16 @@
         <v>82</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16208,7 +16211,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16217,10 +16220,10 @@
         <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
@@ -16229,10 +16232,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16243,10 +16246,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16269,16 +16272,16 @@
         <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16328,7 +16331,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16337,10 +16340,10 @@
         <v>92</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
@@ -16349,10 +16352,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16363,10 +16366,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16392,16 +16395,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16429,10 +16432,10 @@
         <v>119</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16450,7 +16453,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16468,13 +16471,13 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16485,10 +16488,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16514,16 +16517,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16548,13 +16551,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16572,7 +16575,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16590,13 +16593,13 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16607,10 +16610,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16633,19 +16636,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16694,7 +16697,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16706,7 +16709,7 @@
         <v>104</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
@@ -16715,10 +16718,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16729,10 +16732,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16755,16 +16758,16 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16814,7 +16817,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16835,10 +16838,10 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>82</v>
@@ -16849,10 +16852,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16875,16 +16878,16 @@
         <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16934,7 +16937,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16955,10 +16958,10 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
@@ -16969,10 +16972,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16995,16 +16998,16 @@
         <v>93</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17054,7 +17057,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17075,10 +17078,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17089,10 +17092,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17115,19 +17118,19 @@
         <v>93</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17176,7 +17179,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17197,10 +17200,10 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
@@ -17211,10 +17214,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17237,13 +17240,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17294,7 +17297,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17329,10 +17332,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17361,7 +17364,7 @@
         <v>141</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>143</v>
@@ -17414,7 +17417,7 @@
         <v>146</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17449,14 +17452,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17478,10 +17481,10 @@
         <v>140</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>143</v>
@@ -17536,7 +17539,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17571,10 +17574,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17600,16 +17603,16 @@
         <v>198</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>82</v>
@@ -17634,13 +17637,13 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>82</v>
@@ -17658,7 +17661,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>92</v>
@@ -17676,16 +17679,16 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -17693,10 +17696,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17719,19 +17722,19 @@
         <v>93</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17780,7 +17783,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17798,27 +17801,27 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17844,16 +17847,16 @@
         <v>198</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -17878,13 +17881,13 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17902,7 +17905,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17911,7 +17914,7 @@
         <v>92</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>105</v>
@@ -17926,7 +17929,7 @@
         <v>106</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>82</v>
@@ -17937,14 +17940,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17966,16 +17969,16 @@
         <v>198</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18000,13 +18003,13 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18024,7 +18027,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18042,27 +18045,27 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18088,16 +18091,16 @@
         <v>83</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18146,7 +18149,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18167,10 +18170,10 @@
         <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4643,7 +4643,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -5003,7 +5003,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5245,7 +5245,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6095,7 +6095,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6455,7 +6455,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6697,7 +6697,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7547,7 +7547,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7907,7 +7907,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8149,7 +8149,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8999,7 +8999,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9359,7 +9359,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9601,7 +9601,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10451,7 +10451,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10811,7 +10811,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -11053,7 +11053,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1157,7 +1157,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>https://fhir.loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -1181,7 +1181,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
 </t>
   </si>
   <si>
@@ -1537,7 +1537,7 @@
     <t>Observation.value[x].code</t>
   </si>
   <si>
-    <t>Coded responses from the common UCUM units for length.</t>
+    <t>Coded responses from the common UCUM units for number concentration.</t>
   </si>
   <si>
     <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
@@ -1549,7 +1549,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-mass-concentration-units</t>
+    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -1980,7 +1980,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|QuestionnaireResponse|Observation)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
@@ -2430,7 +2430,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.2421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.5859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
@@ -4223,7 +4223,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>
@@ -12985,13 +12985,13 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
@@ -16983,13 +16983,13 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-age</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-age</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-age</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1549,7 +1549,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-time-units</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2430,7 +2430,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-age</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-age</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-age</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1549,7 +1549,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-time-units</t>
+    <t>http://fhir.org/de/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-age</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-age</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-age</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1549,7 +1549,7 @@
     <t>wk | a</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-time-units</t>
+    <t>http://hl7.org/de/ValueSet/vs-time-units</t>
   </si>
   <si>
     <t>Quantity.code</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4280,7 +4280,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -5732,7 +5732,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -7184,7 +7184,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -8636,7 +8636,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -10088,7 +10088,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1157,7 +1157,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1157,7 +1157,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-age.xlsx
+++ b/output/StructureDefinition-cde-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
